--- a/共通機能設計書.xlsx
+++ b/共通機能設計書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B00E9E-E8E7-4FF4-A18B-904FA1D04975}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D48265-DE88-4D18-811B-61C47C0E6A6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>＃</t>
     <phoneticPr fontId="1"/>
@@ -231,6 +231,84 @@
   </si>
   <si>
     <t>conFile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jdbc.properties</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数.定義ファイルのDB接続Url、ユーザとパスワードを読み込みして、</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>db接続オブジェクトを作成する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理異常終了の場合、NULLを戻る。</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理正常終了の場合、DB接続オブジェクトを戻る。</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -574,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -765,18 +843,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA9B368-A2C4-4831-8FB9-7976D5603F94}">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.875" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -858,7 +938,9 @@
       <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="11" spans="2:7">
@@ -869,6 +951,31 @@
     <row r="12" spans="2:7">
       <c r="B12" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
